--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +391,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +438,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +484,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -569,10 +593,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -616,28 +640,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="3">
+      <c r="C17" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -662,28 +686,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -829,10 +853,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -876,28 +900,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="3">
+      <c r="A26" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="3">
+      <c r="C26" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -922,28 +946,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="3">
+      <c r="B28" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="3">
+      <c r="C28" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="D28" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="3">
+      <c r="F28" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="3">
+      <c r="I28" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1060,10 +1084,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1107,28 +1131,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="3">
+      <c r="C34" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1153,28 +1177,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="C36" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="D36" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="3">
+      <c r="I36" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1581,10 +1605,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1628,28 +1652,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="A52" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="3">
+      <c r="C52" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1674,28 +1698,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="3">
+      <c r="I54" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1986,10 +2010,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2033,28 +2057,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2079,28 +2103,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2275,10 +2299,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="3" t="s">
+      <c r="J74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2322,28 +2346,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="3">
+      <c r="A76" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="3">
+      <c r="C76" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2368,28 +2392,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="3">
+      <c r="C78" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="3">
+      <c r="D78" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="3">
+      <c r="I78" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2506,10 +2530,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="3" t="s">
+      <c r="J82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2553,28 +2577,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="3">
+      <c r="A84" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="3">
+      <c r="C84" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2599,28 +2623,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="3">
+      <c r="B86" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="3">
+      <c r="C86" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="3">
+      <c r="D86" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="3">
+      <c r="F86" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="3">
+      <c r="G86" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="3">
+      <c r="H86" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="3">
+      <c r="I86" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2766,10 +2790,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2813,28 +2837,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="A93" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="3">
+      <c r="C93" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2859,28 +2883,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="3">
+      <c r="I95" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3084,10 +3108,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="J102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3131,28 +3155,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="3">
+      <c r="A104" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="3">
+      <c r="C104" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3177,28 +3201,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="3">
+      <c r="C106" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="3">
+      <c r="D106" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="3">
+      <c r="I106" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3402,10 +3426,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3449,28 +3473,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3495,28 +3519,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3662,10 +3686,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="J122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3709,28 +3733,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="3">
+      <c r="C124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3755,28 +3779,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3980,10 +4004,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="3" t="s">
+      <c r="J133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4027,28 +4051,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="A135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="3">
+      <c r="C135" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4073,28 +4097,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="3">
+      <c r="I137" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4443,10 +4467,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="3" t="s">
+      <c r="J149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4490,28 +4514,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="3">
+      <c r="C151" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4536,28 +4560,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4703,10 +4727,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4750,28 +4774,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4796,28 +4820,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4992,10 +5016,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3" t="s">
+      <c r="J168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5039,28 +5063,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="3">
+      <c r="A170" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="3">
+      <c r="C170" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5085,28 +5109,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="3">
+      <c r="C172" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="3">
+      <c r="D172" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="3">
+      <c r="I172" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5194,10 +5218,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="3" t="s">
+      <c r="J175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5241,28 +5265,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="3">
+      <c r="A177" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="3">
+      <c r="C177" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5287,28 +5311,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="3">
+      <c r="I179" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5425,10 +5449,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5472,28 +5496,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5518,28 +5542,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5627,10 +5651,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5674,28 +5698,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5720,28 +5744,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5858,10 +5882,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="3" t="s">
+      <c r="J198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5905,28 +5929,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="3">
+      <c r="A200" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="3">
+      <c r="C200" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5951,28 +5975,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="3">
+      <c r="C202" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="3">
+      <c r="D202" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="3">
+      <c r="I202" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6060,10 +6084,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6107,28 +6131,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6153,28 +6177,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6233,10 +6257,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="3" t="s">
+      <c r="J211" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
